--- a/biology/Zoologie/Galleria_mellonella/Galleria_mellonella.xlsx
+++ b/biology/Zoologie/Galleria_mellonella/Galleria_mellonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fausse teigne de la cire (Galleria mellonella) est une espèce de lépidoptères (papillons) de la famille des Pyralidae vivant en Europe. Elle est aussi appelée « gallérie » en France[1],[2]. C'est la seule espèce du genre Galleria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fausse teigne de la cire (Galleria mellonella) est une espèce de lépidoptères (papillons) de la famille des Pyralidae vivant en Europe. Elle est aussi appelée « gallérie » en France,. C'est la seule espèce du genre Galleria.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon volant de mai à octobre a une envergure de 30 à 41 mm.
 La larve pose un problème aux apiculteurs car elle se nourrit des rayons de cire des ruches. Pour s'en protéger, certains apiculteurs favorisent l'installation d'un nid de frelons européens (Vespa crabro) à proximité des ruches car ceux-ci consomment bien plus de fausses teignes que d'abeilles[réf. nécessaire].
-En 2017, un article publié dans la revue scientifique Current Biology indique que la chenille pouvait dégrader le polyéthylène[3].
+En 2017, un article publié dans la revue scientifique Current Biology indique que la chenille pouvait dégrader le polyéthylène.
 </t>
         </is>
       </c>
